--- a/CadastroFamilia.xlsx
+++ b/CadastroFamilia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.franco\Documents\GitHub\lilmodivrit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0107EE17-EDB1-4111-8294-BF0B1FAA89B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C086D3-1FA6-4153-9482-4B8D4BE961AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" xr2:uid="{F6FD2D3D-9D4D-40BB-81D7-C7D0A8378F3E}"/>
+    <workbookView xWindow="20370" yWindow="-4860" windowWidth="29040" windowHeight="15840" xr2:uid="{F6FD2D3D-9D4D-40BB-81D7-C7D0A8378F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>Robernilce Silva Alves</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Pollyana Franco Alves</t>
   </si>
   <si>
-    <t>Gustavo</t>
-  </si>
-  <si>
     <t>Marcilene</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>Conquista</t>
   </si>
   <si>
-    <t>Parasha</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -281,6 +275,15 @@
   </si>
   <si>
     <t>Falta Informação</t>
+  </si>
+  <si>
+    <t>Gustavo Carvalho</t>
+  </si>
+  <si>
+    <t>Parashah</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -487,10 +490,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,9 +532,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -569,7 +572,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -675,7 +678,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -817,7 +820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -825,433 +828,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A907EE89-ADFC-4CA6-8164-5B2F82590361}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>17876</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="4">
+        <v>558</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19026</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="4">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>27335</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="4">
+        <v>439</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30974</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="4">
+        <v>295</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>28791</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="4">
+        <v>395</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>26816</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="4">
+        <v>399</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>26755</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="4">
+        <v>182</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>29102</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4">
+        <v>365</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="4">
+        <v>350</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40154</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="4">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
+        <v>41542</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="4">
+        <v>311</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>39677</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="4">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>39677</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="4">
+        <v>251</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="4">
+        <v>309</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>28110</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G18" s="4">
+        <v>117</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="5">
+        <v>330</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="4">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>17876</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="4">
-        <v>558</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>19026</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="4">
-        <v>150</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>27335</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="4">
-        <v>439</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>30974</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="4">
-        <v>295</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>28791</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="4">
-        <v>395</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>26816</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="4">
-        <v>399</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>26755</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="4">
-        <v>182</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>29102</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="4">
-        <v>365</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="4">
-        <v>350</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>40154</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="4">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1">
-        <v>41542</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="4">
-        <v>311</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1">
-        <v>39677</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="4">
-        <v>100</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1">
-        <v>39677</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="4">
-        <v>251</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="4">
-        <v>309</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1">
-        <v>28110</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="4">
-        <v>117</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="G21" s="4">
+        <v>505</v>
+      </c>
+      <c r="H21" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="5">
-        <v>330</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="4">
-        <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="4">
-        <v>505</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1280,25 +1349,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1309,24 +1378,24 @@
         <v>27335</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="14">
         <v>439</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="13">
         <v>29102</v>
@@ -1334,7 +1403,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="14">
         <v>400</v>
@@ -1343,98 +1412,98 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="13">
         <v>41542</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="14">
         <v>311</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="13">
         <v>39677</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="14">
         <v>100</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13">
         <v>39677</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="14">
         <v>251</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="17">
         <v>309</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1526,7 @@
         <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1465,7 +1534,7 @@
         <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -1473,12 +1542,12 @@
         <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/CadastroFamilia.xlsx
+++ b/CadastroFamilia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.franco\Documents\GitHub\lilmodivrit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C086D3-1FA6-4153-9482-4B8D4BE961AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09A1F1E-4ACC-4AAA-9BA4-009FC2D4CCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4860" windowWidth="29040" windowHeight="15840" xr2:uid="{F6FD2D3D-9D4D-40BB-81D7-C7D0A8378F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" xr2:uid="{F6FD2D3D-9D4D-40BB-81D7-C7D0A8378F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -831,7 +831,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CadastroFamilia.xlsx
+++ b/CadastroFamilia.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.franco\Documents\GitHub\lilmodivrit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09A1F1E-4ACC-4AAA-9BA4-009FC2D4CCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B45EF4A-AC41-4D1B-872D-34D34AE5965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" xr2:uid="{F6FD2D3D-9D4D-40BB-81D7-C7D0A8378F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
-    <sheet name="Gematria" sheetId="2" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="4" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gematria" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="144">
   <si>
     <t>Robernilce Silva Alves</t>
   </si>
@@ -106,9 +107,6 @@
     <t>LetraFinal</t>
   </si>
   <si>
-    <t>VersNome</t>
-  </si>
-  <si>
     <t>Berenice Alves</t>
   </si>
   <si>
@@ -166,9 +164,6 @@
     <t>16/Av/5768</t>
   </si>
   <si>
-    <t>26/Av/5769</t>
-  </si>
-  <si>
     <t>21/Tishrei/5774</t>
   </si>
   <si>
@@ -277,20 +272,218 @@
     <t>Falta Informação</t>
   </si>
   <si>
-    <t>Gustavo Carvalho</t>
-  </si>
-  <si>
-    <t>Parashah</t>
-  </si>
-  <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Gustavo Cezar</t>
+  </si>
+  <si>
+    <t>Parasha</t>
+  </si>
+  <si>
+    <t>Vayetzei (Genesis 28:10-32:3)</t>
+  </si>
+  <si>
+    <t>Haftara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oséias 11:7-12:12 </t>
+  </si>
+  <si>
+    <t>reish</t>
+  </si>
+  <si>
+    <t>samech</t>
+  </si>
+  <si>
+    <t>Ezequiel 28:25-29:21</t>
+  </si>
+  <si>
+    <t>Capítulos 39-43</t>
+  </si>
+  <si>
+    <t>Shabat</t>
+  </si>
+  <si>
+    <t>Capítulos 35-38</t>
+  </si>
+  <si>
+    <t>Bo (Exodo 10:1-13:16)</t>
+  </si>
+  <si>
+    <t>nun</t>
+  </si>
+  <si>
+    <t>Segunda Reis 4:1-37</t>
+  </si>
+  <si>
+    <t>Vayerá (Genesis 18:1 - 22:24)</t>
+  </si>
+  <si>
+    <t>Capítulos 83-87</t>
+  </si>
+  <si>
+    <t>peh</t>
+  </si>
+  <si>
+    <t>yud</t>
+  </si>
+  <si>
+    <t>Capítulos 18-22</t>
+  </si>
+  <si>
+    <t>kaf</t>
+  </si>
+  <si>
+    <t>Feriado</t>
+  </si>
+  <si>
+    <t>Shavuot</t>
+  </si>
+  <si>
+    <t>Ezequiel 1:1-28, 3:12</t>
+  </si>
+  <si>
+    <t>Simchat Torah</t>
+  </si>
+  <si>
+    <t>Capítulos 108-112</t>
+  </si>
+  <si>
+    <t>mem</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>Vezot Haberachá (Devarim 33:27-34:12); Bereshit (Bereshit 1:1-5:24)</t>
+  </si>
+  <si>
+    <t>Isaiah 42:5-21</t>
+  </si>
+  <si>
+    <t>20/Kislev/5770</t>
+  </si>
+  <si>
+    <t>guimel</t>
+  </si>
+  <si>
+    <t>Zacarias 2:14-4:7</t>
+  </si>
+  <si>
+    <t>Chanuká</t>
+  </si>
+  <si>
+    <t>Hoshaná Rabá</t>
+  </si>
+  <si>
+    <t>Capítulos 104-105</t>
+  </si>
+  <si>
+    <t>Capítulos 23-28</t>
+  </si>
+  <si>
+    <t>Vayeshev  (Genesis 37:1-40:23; Numbers 7:1-17)</t>
+  </si>
+  <si>
+    <t>lamed</t>
+  </si>
+  <si>
+    <t>Vezot Haberachá (Devarim 33:18-33:21); Bereshit (Genesis 1:1-6:8)</t>
+  </si>
+  <si>
+    <t>Isaias 42:5-21</t>
+  </si>
+  <si>
+    <t>Iyyar</t>
+  </si>
+  <si>
+    <t>Nassô (Bamidbar 5:1-5:10)</t>
+  </si>
+  <si>
+    <t>Capítulos 1-9</t>
+  </si>
+  <si>
+    <t>01/Iyyar/5752</t>
+  </si>
+  <si>
+    <t>Kedoshim (Vayicrá 19:15-19:22)</t>
+  </si>
+  <si>
+    <t>Ezequiel 20:2-20</t>
+  </si>
+  <si>
+    <t>Rosh Chodesh Iyar</t>
+  </si>
+  <si>
+    <t>08/Sivan/5754</t>
+  </si>
+  <si>
+    <t>Nasso (Números 4:21-7:89)</t>
+  </si>
+  <si>
+    <t>Juizes 13:2-25</t>
+  </si>
+  <si>
+    <t>Capítulos 44-48</t>
+  </si>
+  <si>
+    <t>gimel</t>
+  </si>
+  <si>
+    <t>vav</t>
+  </si>
+  <si>
+    <t>Isaias 49:14-51:3</t>
+  </si>
+  <si>
+    <t>Eikev (Deuteronomy 7:12-11:25)</t>
+  </si>
+  <si>
+    <t>dalet</t>
+  </si>
+  <si>
+    <t>Capítulos 79-82</t>
+  </si>
+  <si>
+    <t>24/Kislev/5732</t>
+  </si>
+  <si>
+    <t>Miketz (Genesis 41:1-44:17; Numbers 28:9-15, 7:42-47)</t>
+  </si>
+  <si>
+    <t>https://dailyzohar.com/tzadikim/</t>
+  </si>
+  <si>
+    <t>Rabbi Yaakov Moshe Charlap</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Biografia</t>
+  </si>
+  <si>
+    <t>Charlap nasceu em Jerusalém em 1882, onde seu pai serviu como juiz rabínico (dayyan) no bet din do rabino Yehoshua Leib Diskin.
+Quando o bairro Sha'arei Hesed de Jerusalém foi estabelecido fora da Cidade Velha em 1908, Charlap foi nomeado rabino do bairro.
+Em 1924, quando o rabino Kook estabeleceu a yeshiva Mercaz HaRav, Charlap foi nomeado Rosh Yeshiva, uma posição que ocupou até sua morte em 1951.
+Quando o Estado de Israel foi fundado em 1948, ele expressou oralmente e por escrito que este evento significou "o início da redenção".
+Entre seus alunos notáveis ​​estavam os rabinos Yehuda Amital, Shaul Yisraeli, Moshe-Zvi Neria e Avraham Zuckerman.
+Ele morreu em 1951 e está enterrado no Cemitério Sanhedria de Jerusalém.</t>
+  </si>
+  <si>
+    <t>Rabbi Chaim Tzvi Teitelbaum</t>
+  </si>
+  <si>
+    <t>Nasceu em dezembro de 1879 e falesceu em 1926 / 6 shevat 5686). Conheçido como Sigheter Rebbe, autor de Atzei Chaim, era o filho mais velho do Rabino Chananya Yom Tov Lipa Teitelbaum, também onheçido como Kedushas Yom Tov. Ele era o irmão mais velho do Rabino Joel Teitelbaum e pai de Moshe Teitelbaum, ambos rebbes de Satmar
+Chaim Tzvi Teitelbaum casou-se com Bracha Sima Halberstam, e juntos, eles tiveram quatro filhos. Um dos seus filhoa foi o famoso Rabino Moshe Teitelbaum, o Satmar Rebbe. Outro filho foi o rabino Yekutiel Yehuda Teitelbaum, que morreu no Holocausto. Uma de suas filhas também morreu no Holocausto. Escreveu a série Atzei Chaim, comentário sobre a Torá, Salmos, Halachot entre outros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +522,20 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -455,10 +662,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -514,8 +722,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -828,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A907EE89-ADFC-4CA6-8164-5B2F82590361}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,18 +1066,19 @@
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -869,7 +1093,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
@@ -884,13 +1108,16 @@
         <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -901,22 +1128,37 @@
         <v>17876</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4">
         <v>558</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -927,22 +1169,40 @@
         <v>19026</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G3" s="4">
         <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -953,22 +1213,40 @@
         <v>27335</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="4">
         <v>439</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -979,22 +1257,40 @@
         <v>30974</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="4">
         <v>295</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1005,22 +1301,40 @@
         <v>28791</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4">
         <v>395</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1028,299 +1342,423 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>26816</v>
+        <v>27912</v>
       </c>
       <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" s="4">
         <v>399</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>26755</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="C8" s="23">
+        <v>33728</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="25">
         <v>182</v>
       </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C9" s="1">
+        <v>34472</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="4">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4">
+        <v>365</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="4">
+        <v>350</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>29102</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="C12" s="1">
+        <v>40154</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="4">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>13</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="23">
+        <v>41542</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="25">
+        <v>311</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="4">
-        <v>365</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="4">
-        <v>350</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>40154</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" s="1">
+        <v>39677</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="4">
-        <v>54</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1">
-        <v>41542</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="4">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
         <v>39677</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="4">
+        <v>251</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="4">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>39677</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G16" s="4">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>28110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="4">
-        <v>309</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1">
-        <v>28110</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="4">
-        <v>117</v>
+        <v>68</v>
+      </c>
+      <c r="G18" s="5">
+        <v>330</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="5">
-        <v>330</v>
+        <v>69</v>
+      </c>
+      <c r="G19" s="4">
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G20" s="4">
-        <v>63</v>
+        <v>505</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="4">
-        <v>505</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1330,6 +1768,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79655244-2C5A-4606-B807-5E1F6BDCCAA4}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="94.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{4747500E-1302-4C43-9909-BB2FA49239C3}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4895DB0B-7060-4C59-A209-D4CA53D83405}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -1349,7 +1846,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>14</v>
@@ -1364,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>18</v>
@@ -1378,19 +1875,19 @@
         <v>27335</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="14">
         <v>439</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1403,7 +1900,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" s="14">
         <v>400</v>
@@ -1412,25 +1909,25 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="13">
         <v>41542</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="14">
         <v>311</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1441,19 +1938,19 @@
         <v>39677</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="14">
         <v>100</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1464,19 +1961,19 @@
         <v>39677</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="14">
         <v>251</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1487,23 +1984,23 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" s="17">
         <v>309</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1511,12 +2008,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16A6F45-A13C-4E28-9A48-8C17088F1EF3}">
   <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +2023,7 @@
         <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,7 +2031,7 @@
         <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -1542,12 +2039,12 @@
         <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
